--- a/Week3-4/Feature BackLogFINAL.xlsx
+++ b/Week3-4/Feature BackLogFINAL.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,18 +17,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>User Story</t>
   </si>
@@ -168,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,109 +597,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,7 +1011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1013,24 +1021,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="14.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1062,14 +1070,14 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="25.75" customHeight="1">
-      <c r="A3" s="56">
+    <row r="3" spans="1:13" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="45" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="17"/>
@@ -1082,10 +1090,10 @@
       <c r="G3" s="5"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="57"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="41"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
@@ -1095,10 +1103,10 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1115,7 @@
       <c r="G5" s="7"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="29" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
@@ -1121,14 +1129,14 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="59">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="45" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="17"/>
@@ -1141,10 +1149,10 @@
       <c r="G7" s="5"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="60"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="41"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="18" t="s">
         <v>11</v>
       </c>
@@ -1155,10 +1163,10 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="29" customHeight="1" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="37"/>
+    <row r="9" spans="1:13" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="19" t="s">
         <v>12</v>
       </c>
@@ -1167,7 +1175,7 @@
       <c r="G9" s="7"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
@@ -1179,14 +1187,14 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="59">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="17"/>
@@ -1201,10 +1209,10 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="60"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
@@ -1219,10 +1227,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="51.5" customHeight="1" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="37"/>
+    <row r="13" spans="1:13" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="19" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1243,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="13"/>
       <c r="C14" s="15"/>
@@ -1249,14 +1257,14 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="56">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
         <v>4</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="45" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="17"/>
@@ -1275,10 +1283,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="37"/>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="19" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1299,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="14"/>
       <c r="C17" s="16"/>
@@ -1305,14 +1313,14 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="25.75" customHeight="1">
-      <c r="A18" s="59">
+    <row r="18" spans="1:13" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>5</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="17"/>
@@ -1331,10 +1339,10 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
-      <c r="A19" s="61"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="19" t="s">
         <v>8</v>
       </c>
@@ -1349,7 +1357,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
@@ -1363,14 +1371,14 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1">
-      <c r="A21" s="56">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>6</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="56" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="17"/>
@@ -1389,10 +1397,10 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="43.75" customHeight="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="44"/>
+    <row r="22" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="18" t="s">
         <v>15</v>
       </c>
@@ -1407,10 +1415,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="44"/>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="18" t="s">
         <v>16</v>
       </c>
@@ -1423,10 +1431,10 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="45"/>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="19" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1447,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="12"/>
       <c r="C25" s="8"/>
@@ -1453,7 +1461,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
@@ -1467,7 +1475,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
@@ -1481,14 +1489,14 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="59">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
         <v>7</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="23"/>
@@ -1507,10 +1515,10 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="51"/>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="19" t="s">
         <v>27</v>
       </c>
@@ -1523,7 +1531,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="14"/>
       <c r="C30" s="8"/>
@@ -1537,14 +1545,14 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="59">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
         <v>8</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="17"/>
@@ -1563,10 +1571,10 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="49"/>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="19" t="s">
         <v>28</v>
       </c>
@@ -1579,7 +1587,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="48" customHeight="1" thickBot="1">
+    <row r="33" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
       <c r="B33" s="13"/>
       <c r="C33" s="9"/>
@@ -1593,14 +1601,14 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="59">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
         <v>9</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="17"/>
@@ -1619,10 +1627,10 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1">
-      <c r="A35" s="61"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="37"/>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="19" t="s">
         <v>30</v>
       </c>
@@ -1635,7 +1643,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
       <c r="B36" s="13"/>
       <c r="C36" s="9"/>
@@ -1649,14 +1657,14 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="56">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
         <v>10</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -1677,10 +1685,10 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="57"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="52"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -1691,10 +1699,10 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="49"/>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -1705,7 +1713,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
       <c r="B40" s="13"/>
       <c r="C40" s="9"/>
@@ -1719,14 +1727,14 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="59">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
         <v>11</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -1747,10 +1755,10 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="60"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="52"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -1761,10 +1769,10 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1">
-      <c r="A43" s="61"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="49"/>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -1775,7 +1783,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="13"/>
       <c r="C44" s="9"/>
@@ -1789,14 +1797,14 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="59">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
         <v>12</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -1817,10 +1825,10 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="60"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="52"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -1829,10 +1837,10 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:13" ht="15" thickBot="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="49"/>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
@@ -1841,7 +1849,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1">
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" s="13"/>
       <c r="C48" s="9"/>
@@ -1853,14 +1861,14 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="56">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
         <v>13</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -1873,10 +1881,10 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="15" thickBot="1">
-      <c r="A50" s="58"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="49"/>
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="22"/>
@@ -1885,7 +1893,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1">
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
       <c r="B51" s="14"/>
       <c r="C51" s="8"/>
@@ -1897,30 +1905,36 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="A52" s="59">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31">
         <v>14</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="5"/>
+      <c r="E52" s="27">
+        <v>42482</v>
+      </c>
+      <c r="F52" s="27">
+        <v>42483</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="15" thickBot="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="49"/>
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="32"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -1929,7 +1943,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="10"/>
       <c r="C54" s="9"/>
@@ -1941,7 +1955,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="10"/>
       <c r="C55" s="9"/>
@@ -1953,7 +1967,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
@@ -1965,7 +1979,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="10"/>
       <c r="C57" s="9"/>
@@ -1977,7 +1991,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="15" thickBot="1">
+    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
       <c r="B58" s="10"/>
       <c r="C58" s="9"/>
@@ -1989,30 +2003,36 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="A59" s="56">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
         <v>15</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="5"/>
+      <c r="E59" s="27">
+        <v>42482</v>
+      </c>
+      <c r="F59" s="27">
+        <v>42488</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="A60" s="57"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="54"/>
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -2021,10 +2041,10 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="57"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="54"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -2033,10 +2053,10 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="15" thickBot="1">
-      <c r="A62" s="58"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="55"/>
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="35"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
@@ -2045,7 +2065,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" s="10"/>
       <c r="C63" s="24"/>
@@ -2057,36 +2077,42 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1">
-      <c r="A64" s="59">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="31">
         <v>16</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="5"/>
+      <c r="E64" s="27">
+        <v>42485</v>
+      </c>
+      <c r="F64" s="27">
+        <v>42485</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1">
-      <c r="A65" s="61"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="49"/>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="32"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1">
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" s="12"/>
       <c r="C66" s="25"/>
@@ -2095,14 +2121,14 @@
       <c r="F66" s="18"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="59">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="31">
         <v>17</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D67" s="17" t="s">
@@ -2112,16 +2138,16 @@
       <c r="F67" s="17"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1">
-      <c r="A68" s="61"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="49"/>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="32"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1">
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" s="10"/>
       <c r="C69" s="24"/>
@@ -2130,27 +2156,33 @@
       <c r="F69" s="20"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="59">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="31">
         <v>18</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1">
-      <c r="A71" s="61"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="49"/>
+      <c r="E70" s="27">
+        <v>42475</v>
+      </c>
+      <c r="F70" s="27">
+        <v>42482</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -2158,24 +2190,30 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C49:C50"/>
@@ -2188,30 +2226,24 @@
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A59:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
@@ -2231,205 +2263,213 @@
       <selection sqref="A1:A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="62"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="63"/>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64"/>
     </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="62"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="63"/>
-    </row>
-    <row r="9" spans="1:1" ht="15" thickBot="1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64"/>
     </row>
-    <row r="10" spans="1:1" ht="15" thickBot="1">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="62"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="63"/>
-    </row>
-    <row r="13" spans="1:1" ht="15" thickBot="1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
     </row>
-    <row r="14" spans="1:1" ht="15" thickBot="1">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="62"/>
-    </row>
-    <row r="16" spans="1:1" ht="15" thickBot="1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
     </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="62"/>
-    </row>
-    <row r="19" spans="1:1" ht="15" thickBot="1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
     </row>
-    <row r="20" spans="1:1" ht="15" thickBot="1">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="62"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="63"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="63"/>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
     </row>
-    <row r="25" spans="1:1" ht="15" thickBot="1">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="62"/>
-    </row>
-    <row r="27" spans="1:1" ht="15" thickBot="1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="63"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
     </row>
-    <row r="28" spans="1:1" ht="15" thickBot="1">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="62"/>
-    </row>
-    <row r="30" spans="1:1" ht="15" thickBot="1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="63"/>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
     </row>
-    <row r="31" spans="1:1" ht="15" thickBot="1">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="62"/>
-    </row>
-    <row r="33" spans="1:1" ht="15" thickBot="1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="63"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64"/>
     </row>
-    <row r="34" spans="1:1" ht="15" thickBot="1">
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="62"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="63"/>
-    </row>
-    <row r="37" spans="1:1" ht="15" thickBot="1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="63"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
     </row>
-    <row r="38" spans="1:1" ht="15" thickBot="1">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="62"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="63"/>
-    </row>
-    <row r="41" spans="1:1" ht="15" thickBot="1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="63"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
     </row>
-    <row r="42" spans="1:1" ht="15" thickBot="1">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="62"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="63"/>
-    </row>
-    <row r="45" spans="1:1" ht="15" thickBot="1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="63"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="65"/>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
     </row>
-    <row r="46" spans="1:1" ht="15" thickBot="1">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="62"/>
-    </row>
-    <row r="48" spans="1:1" ht="15" thickBot="1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="63"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
     </row>
-    <row r="49" spans="1:1" ht="15" thickBot="1">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="62"/>
-    </row>
-    <row r="51" spans="1:1" ht="15" thickBot="1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="63"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="64"/>
     </row>
-    <row r="52" spans="1:1" ht="15" thickBot="1">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="62"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="63"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="63"/>
-    </row>
-    <row r="56" spans="1:1" ht="15" thickBot="1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="63"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="65"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="65"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64"/>
     </row>
-    <row r="57" spans="1:1" ht="15" thickBot="1">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="62"/>
-    </row>
-    <row r="59" spans="1:1" ht="15" thickBot="1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="63"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="64"/>
     </row>
-    <row r="60" spans="1:1" ht="15" thickBot="1">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="62"/>
-    </row>
-    <row r="62" spans="1:1" ht="15" thickBot="1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="63"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="64"/>
     </row>
-    <row r="63" spans="1:1" ht="15" thickBot="1">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="62"/>
-    </row>
-    <row r="65" spans="1:1" ht="15" thickBot="1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="63"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A58:A59"/>
@@ -2440,14 +2480,6 @@
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
